--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2678.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2678.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161129755442232</v>
+        <v>0.9180859327316284</v>
       </c>
       <c r="B1">
-        <v>2.420999160625128</v>
+        <v>1.096815347671509</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.477943181991577</v>
       </c>
       <c r="D1">
-        <v>2.330388924034628</v>
+        <v>3.742326259613037</v>
       </c>
       <c r="E1">
-        <v>1.21228477541962</v>
+        <v>3.711601972579956</v>
       </c>
     </row>
   </sheetData>
